--- a/nuevo.xlsx
+++ b/nuevo.xlsx
@@ -1,126 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOVEDA\Desktop\Repo_auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
-  <si>
-    <t>FECHA CORTA</t>
-  </si>
-  <si>
-    <t>FECHA LARGA</t>
-  </si>
-  <si>
-    <t>CELEBRACIÓN</t>
-  </si>
-  <si>
-    <t>Día de los Reyes Magos</t>
-  </si>
-  <si>
-    <t>Día de San José</t>
-  </si>
-  <si>
-    <t>Jueves Santo</t>
-  </si>
-  <si>
-    <t>Viernes Santo</t>
-  </si>
-  <si>
-    <t>Día del Trabajo</t>
-  </si>
-  <si>
-    <t>Día de la Ascensión</t>
-  </si>
-  <si>
-    <t>Corpus Christi</t>
-  </si>
-  <si>
-    <t>Sagrado Corazón</t>
-  </si>
-  <si>
-    <t>San Pedro y San Pablo</t>
-  </si>
-  <si>
-    <t>Día de la Independencia</t>
-  </si>
-  <si>
-    <t>Batalla de Boyacá</t>
-  </si>
-  <si>
-    <t>Día de la Asunción</t>
-  </si>
-  <si>
-    <t>celebración del Día de la Raza</t>
-  </si>
-  <si>
-    <t>Día de todos los Santos</t>
-  </si>
-  <si>
-    <t>Independencia de Cartagena</t>
-  </si>
-  <si>
-    <t>Inmaculada Concepción</t>
-  </si>
-  <si>
-    <t>Navidad</t>
-  </si>
-  <si>
-    <t>AÑO NUEVO</t>
-  </si>
-  <si>
-    <t>San José</t>
-  </si>
-  <si>
-    <t>Pedro y Pablo</t>
-  </si>
-  <si>
-    <t>Asunción Virgen</t>
-  </si>
-  <si>
-    <t>Dia de la Raza</t>
-  </si>
-  <si>
-    <t>Todos los santos</t>
-  </si>
-  <si>
-    <t>Inependencia de Cartagena</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -138,24 +48,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -443,403 +411,476 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FECHA CORTA</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>FECHA LARGA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>CELEBRACIÓN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>44935</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1" t="n">
         <v>44935</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Día de los Reyes Magos</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45005</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1" t="n">
         <v>45005</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Día de San José</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45022</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1" t="n">
         <v>45022</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Jueves Santo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45023</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1" t="n">
         <v>45023</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Viernes Santo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1" t="n">
         <v>45047</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Día del Trabajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45068</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1" t="n">
         <v>45068</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Día de la Ascensión</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45089</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1" t="n">
         <v>45089</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Corpus Christi</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45096</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1" t="n">
         <v>45096</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sagrado Corazón</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>45110</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1" t="n">
         <v>45110</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>San Pedro y San Pablo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>45127</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1" t="n">
         <v>45127</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Día de la Independencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>45145</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1" t="n">
         <v>45145</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Batalla de Boyacá</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1" t="n">
         <v>45153</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Día de la Asunción</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>45215</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1" t="n">
         <v>45215</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>celebración del Día de la Raza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>45236</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1" t="n">
         <v>45236</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Día de todos los Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>45243</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1" t="n">
         <v>45243</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Independencia de Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>45268</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1" t="n">
         <v>45268</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Inmaculada Concepción</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>45285</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1" t="n">
         <v>45285</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Navidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1" t="n">
         <v>45292</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AÑO NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>45299</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1" t="n">
         <v>45299</v>
       </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Día de los Reyes Magos</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>45376</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1" t="n">
         <v>45376</v>
       </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>San José</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>45379</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1" t="n">
         <v>45379</v>
       </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Jueves Santo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>45380</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1" t="n">
         <v>45380</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Viernes Santo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>45413</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1" t="n">
         <v>45413</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Día del Trabajo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>45425</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1" t="n">
         <v>45425</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Día de la Ascensión</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>45446</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1" t="n">
         <v>45446</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Corpus Christi</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>45453</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1" t="n">
         <v>45453</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sagrado Corazón</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45474</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1" t="n">
         <v>45474</v>
       </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pedro y Pablo</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>45493</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1" t="n">
         <v>45493</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Día de la Independencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>45511</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1" t="n">
         <v>45511</v>
       </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Batalla de Boyacá</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>45523</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1" t="n">
         <v>45523</v>
       </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Asunción Virgen</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>45579</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1" t="n">
         <v>45579</v>
       </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Dia de la Raza</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>45600</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1" t="n">
         <v>45600</v>
       </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Todos los santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>45607</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1" t="n">
         <v>45607</v>
       </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Inependencia de Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>45651</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1" t="n">
         <v>45651</v>
       </c>
-      <c r="C35" t="s">
-        <v>19</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Navidad</t>
+        </is>
       </c>
     </row>
   </sheetData>
